--- a/library-dev/project_1/src/def/decision_table/decision_table.xlsx
+++ b/library-dev/project_1/src/def/decision_table/decision_table.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t xml:space="preserve">DecisionResult</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">DataFrameEditor10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataFrameEditorDefault</t>
   </si>
   <si>
     <t xml:space="preserve">判定結果</t>
@@ -182,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,6 +199,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,15 +283,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,6 +578,32 @@
       </c>
       <c r="H11" s="3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -595,14 +628,14 @@
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
